--- a/table 2 Zhang et al 2011.xlsx
+++ b/table 2 Zhang et al 2011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarcChoisy/GitHub/choisy/tb_prophylaxis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarcChoisy/GitHub/tb-duration/mice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD1B8B-9C38-5F48-A876-7678CD542545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C89A1-D5A6-BB45-BDC7-857C9ED2A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="8060" windowWidth="20000" windowHeight="12340" xr2:uid="{52071268-AD5C-CE40-B2AD-CCF5A62ECFD9}"/>
+    <workbookView xWindow="17320" yWindow="6480" windowWidth="20000" windowHeight="12340" xr2:uid="{52071268-AD5C-CE40-B2AD-CCF5A62ECFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>INH</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>RIF</t>
+  </si>
+  <si>
+    <t>TMC</t>
+  </si>
+  <si>
+    <t>TMC+RPT</t>
+  </si>
+  <si>
+    <t>TMC+RPT+PZA</t>
   </si>
 </sst>
 </file>
@@ -439,13 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1687C282-D1D7-FB46-8C6E-67CCDB054744}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
@@ -591,8 +602,104 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
       <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table 2 Zhang et al 2011.xlsx
+++ b/table 2 Zhang et al 2011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarcChoisy/GitHub/tb-duration/mice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C89A1-D5A6-BB45-BDC7-857C9ED2A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7EF59D-7EAB-504F-9A6B-342995A8DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="6480" windowWidth="20000" windowHeight="12340" xr2:uid="{52071268-AD5C-CE40-B2AD-CCF5A62ECFD9}"/>
+    <workbookView xWindow="9100" yWindow="5140" windowWidth="20000" windowHeight="12340" xr2:uid="{52071268-AD5C-CE40-B2AD-CCF5A62ECFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>INH</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>TMC</t>
-  </si>
-  <si>
-    <t>TMC+RPT</t>
-  </si>
-  <si>
-    <t>TMC+RPT+PZA</t>
   </si>
 </sst>
 </file>
@@ -448,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1687C282-D1D7-FB46-8C6E-67CCDB054744}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,62 +638,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>0.5</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
